--- a/RegistraGrupo.xlsx
+++ b/RegistraGrupo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales RESI\EXELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC22F9FB-E569-491B-87B9-3DD92BC639C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F336D9E-1451-4B95-83F0-A2B2BA43ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="3750" windowWidth="16590" windowHeight="11295" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t xml:space="preserve">Numero de Control </t>
   </si>
@@ -67,13 +67,40 @@
   </si>
   <si>
     <t>grup0012023</t>
+  </si>
+  <si>
+    <t>Cinco</t>
+  </si>
+  <si>
+    <t>Siete</t>
+  </si>
+  <si>
+    <t>Ingenieria en Gestion Empresarial</t>
+  </si>
+  <si>
+    <t>grup0032023</t>
+  </si>
+  <si>
+    <t>grup0042023</t>
+  </si>
+  <si>
+    <t>grup0052023</t>
+  </si>
+  <si>
+    <t>grup0062023</t>
+  </si>
+  <si>
+    <t>grup0072023</t>
+  </si>
+  <si>
+    <t>grup0082024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +112,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,7 +463,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,7 +523,109 @@
         <v>9</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,6 +635,7 @@
       <c r="C14" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RegistraGrupo.xlsx
+++ b/RegistraGrupo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales RESI\EXELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F336D9E-1451-4B95-83F0-A2B2BA43ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1BC4BE-46FD-490A-904E-D65D3C158B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
+    <workbookView xWindow="-345" yWindow="120" windowWidth="14775" windowHeight="7305" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t xml:space="preserve">Numero de Control </t>
   </si>
@@ -42,9 +42,6 @@
     <t>Nombre de la Carrera</t>
   </si>
   <si>
-    <t>Ingenieria en Sistemas Computacionales</t>
-  </si>
-  <si>
     <t>grup0022023</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Siete</t>
   </si>
   <si>
-    <t>Ingenieria en Gestion Empresarial</t>
-  </si>
-  <si>
     <t>grup0032023</t>
   </si>
   <si>
@@ -93,14 +87,17 @@
     <t>grup0072023</t>
   </si>
   <si>
-    <t>grup0082024</t>
+    <t xml:space="preserve">Ingeniería en Sistemas Computacionales </t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Empresarial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +115,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,9 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +471,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,149 +491,132 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
+      <c r="A7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
